--- a/oilrig.xlsx
+++ b/oilrig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game\TF2\MvM\Potato.tf\Mission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37F34D10-4868-4955-85F1-6B01138678B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E0B6EB-218D-4E1F-B98B-8D6E58D96112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{12FFDAB7-566A-4D73-825B-9983D4731133}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>int</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Rescindment</t>
+  </si>
+  <si>
+    <t>Offshore Onslaught</t>
   </si>
 </sst>
 </file>
@@ -421,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B864BCC0-F459-416F-BDB3-4A5BE4D35D59}">
-  <dimension ref="B2:J5"/>
+  <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -482,6 +485,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
